--- a/DayFour/TestScript/Day4.xlsx
+++ b/DayFour/TestScript/Day4.xlsx
@@ -13,17 +13,17 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1707566735" val="1068" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1707566735" fixedDigits="0" showNotice="1" showProtection="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1707566735"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1707566735"/>
+      <pm:revision xmlns:pm="smNativeData" day="1707843279" val="1068" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1707843279" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1707843279" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1707843279"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Test Id</t>
   </si>
@@ -46,10 +46,7 @@
     <t>1. Use POM</t>
   </si>
   <si>
-    <t>2. Use TestNg</t>
-  </si>
-  <si>
-    <t>3. Use JSON to store the credentials</t>
+    <t>2. Use Cucumber and TestNg</t>
   </si>
 </sst>
 </file>
@@ -74,7 +71,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1707566735" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1707843279" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -83,15 +80,26 @@
       </extLst>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1707843279" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left style="none">
         <color rgb="FF000000"/>
@@ -107,7 +115,26 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707566735"/>
+          <pm:border xmlns:pm="smNativeData" id="1707843279"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1707843279"/>
         </ext>
       </extLst>
     </border>
@@ -127,7 +154,7 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1707566735" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1707843279" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
     </ext>
@@ -439,15 +466,13 @@
       </c>
     </row>
     <row r="4" spans="4:4">
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
+      <c r="D4"/>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1707566735" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1707843279" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -456,16 +481,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1707566735" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1707566735" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1707566735" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1707566735" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1707843279" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1707843279" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1707843279" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1707843279" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1707566735" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1707843279" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
